--- a/Data_preparation/datasets/final_data/Teradyne_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Teradyne_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,105 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>6702 JP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>3690 HK</t>
   </si>
 </sst>
 </file>
@@ -751,22 +652,22 @@
         <v>42099</v>
       </c>
       <c r="D2">
-        <v>21.54948957371399</v>
+        <v>17.52421361425563</v>
       </c>
       <c r="E2">
-        <v>21.89906311035156</v>
+        <v>17.02058982849121</v>
       </c>
       <c r="F2">
-        <v>22.6057258426151</v>
+        <v>18.11177291878725</v>
       </c>
       <c r="G2">
-        <v>20.82403088014538</v>
+        <v>16.8154107558799</v>
       </c>
       <c r="H2">
-        <v>457000000</v>
+        <v>159073532</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>4107402638</v>
@@ -867,22 +768,22 @@
         <v>42190</v>
       </c>
       <c r="D3">
-        <v>20.54999923706055</v>
+        <v>18.26608436530506</v>
       </c>
       <c r="E3">
-        <v>20.26000022888184</v>
+        <v>18.01355743408203</v>
       </c>
       <c r="F3">
-        <v>21.02000045776367</v>
+        <v>18.70566689513257</v>
       </c>
       <c r="G3">
-        <v>15.02999973297119</v>
+        <v>16.90992280184338</v>
       </c>
       <c r="H3">
-        <v>263895614</v>
+        <v>159073532</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>4168528774</v>
@@ -992,22 +893,22 @@
         <v>42281</v>
       </c>
       <c r="D4">
-        <v>25.54999923706055</v>
+        <v>16.89282459760514</v>
       </c>
       <c r="E4">
-        <v>31.29500007629395</v>
+        <v>18.3193302154541</v>
       </c>
       <c r="F4">
-        <v>31.5359992980957</v>
+        <v>19.10766217321126</v>
       </c>
       <c r="G4">
-        <v>25.29999923706055</v>
+        <v>16.35788543841881</v>
       </c>
       <c r="H4">
-        <v>10664912097</v>
+        <v>159073532</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>3841413500</v>
@@ -1117,22 +1018,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>19.25753692694876</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>18.28807258605957</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>19.84109946803106</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>17.44096717727977</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>159073532</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>4248043397</v>
@@ -1230,22 +1131,22 @@
         <v>42463</v>
       </c>
       <c r="D6">
-        <v>2.789999961853028</v>
+        <v>20.22618603641685</v>
       </c>
       <c r="E6">
-        <v>3.549999952316284</v>
+        <v>17.85607719421387</v>
       </c>
       <c r="F6">
-        <v>3.990000009536743</v>
+        <v>20.62277799011307</v>
       </c>
       <c r="G6">
-        <v>2.599999904632568</v>
+        <v>17.56335511919017</v>
       </c>
       <c r="H6">
-        <v>1622843689</v>
+        <v>159073532</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>4444318723</v>
@@ -1355,22 +1256,22 @@
         <v>42554</v>
       </c>
       <c r="D7">
-        <v>19.28664066691623</v>
+        <v>18.51736378414104</v>
       </c>
       <c r="E7">
-        <v>20.70916748046875</v>
+        <v>18.70680046081543</v>
       </c>
       <c r="F7">
-        <v>21.18072376920944</v>
+        <v>20.26017470577808</v>
       </c>
       <c r="G7">
-        <v>18.13918698101267</v>
+        <v>17.8732830579726</v>
       </c>
       <c r="H7">
-        <v>199618386</v>
+        <v>159073532</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3951831083</v>
@@ -1468,22 +1369,22 @@
         <v>42645</v>
       </c>
       <c r="D8">
-        <v>22.53000068664551</v>
+        <v>20.51711592064236</v>
       </c>
       <c r="E8">
-        <v>21.92000007629395</v>
+        <v>22.12239074707031</v>
       </c>
       <c r="F8">
-        <v>22.8799991607666</v>
+        <v>22.49283808712042</v>
       </c>
       <c r="G8">
-        <v>20.55999946594238</v>
+        <v>19.20629918985098</v>
       </c>
       <c r="H8">
-        <v>48253392</v>
+        <v>159073532</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>4366299009</v>
@@ -1593,22 +1494,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>24.28901611807751</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>27.02164840698243</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>27.46915397823873</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>24.03193868132056</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>159073532</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>5111041645</v>
@@ -1718,22 +1619,22 @@
         <v>42827</v>
       </c>
       <c r="D10">
-        <v>31.714543606655</v>
+        <v>29.74879420451959</v>
       </c>
       <c r="E10">
-        <v>29.28191375732422</v>
+        <v>33.6618537902832</v>
       </c>
       <c r="F10">
-        <v>35.41908996993069</v>
+        <v>34.92166768746762</v>
       </c>
       <c r="G10">
-        <v>28.63552904239356</v>
+        <v>29.08071019461514</v>
       </c>
       <c r="H10">
-        <v>212968277</v>
+        <v>159073532</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>6229397736</v>
@@ -1846,22 +1747,22 @@
         <v>42918</v>
       </c>
       <c r="D11">
-        <v>33.58000183105469</v>
+        <v>28.85114324144702</v>
       </c>
       <c r="E11">
-        <v>36.90000152587891</v>
+        <v>33.07792663574219</v>
       </c>
       <c r="F11">
-        <v>37.5099983215332</v>
+        <v>35.24869588332169</v>
       </c>
       <c r="G11">
-        <v>32.84999847412109</v>
+        <v>28.3825634088631</v>
       </c>
       <c r="H11">
-        <v>272490000</v>
+        <v>159073532</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>5974490332</v>
@@ -1962,22 +1863,22 @@
         <v>43009</v>
       </c>
       <c r="D12">
-        <v>140.6199951171875</v>
+        <v>35.90292294674281</v>
       </c>
       <c r="E12">
-        <v>145.1600036621094</v>
+        <v>41.09624481201172</v>
       </c>
       <c r="F12">
-        <v>149</v>
+        <v>41.81487815422734</v>
       </c>
       <c r="G12">
-        <v>140.6199951171875</v>
+        <v>35.740030821825</v>
       </c>
       <c r="H12">
-        <v>24003656</v>
+        <v>159073532</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>7377155131</v>
@@ -2090,22 +1991,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>41.95027299479072</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>43.99452209472656</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>46.57622374445597</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>41.34563887627296</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>159073532</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>8213124155</v>
@@ -2206,22 +2107,22 @@
         <v>43191</v>
       </c>
       <c r="D14">
-        <v>48.54999923706055</v>
+        <v>43.62297967224122</v>
       </c>
       <c r="E14">
-        <v>46.59000015258789</v>
+        <v>31.30352592468262</v>
       </c>
       <c r="F14">
-        <v>53.4900016784668</v>
+        <v>43.93072526295126</v>
       </c>
       <c r="G14">
-        <v>44.13000106811523</v>
+        <v>30.99578033397258</v>
       </c>
       <c r="H14">
-        <v>42689006</v>
+        <v>159073532</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>8932770383</v>
@@ -2334,22 +2235,22 @@
         <v>43282</v>
       </c>
       <c r="D15">
-        <v>41.584293711384</v>
+        <v>36.11943933133284</v>
       </c>
       <c r="E15">
-        <v>49.44399642944336</v>
+        <v>41.69110488891602</v>
       </c>
       <c r="F15">
-        <v>50.98970827940524</v>
+        <v>44.14919241860265</v>
       </c>
       <c r="G15">
-        <v>40.9660096861165</v>
+        <v>36.06160063659631</v>
       </c>
       <c r="H15">
-        <v>167899010</v>
+        <v>159073532</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>7283402671</v>
@@ -2462,22 +2363,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>36.17920659571675</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>33.281005859375</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>36.3820797628</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>29.19454142073706</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>159073532</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>6894474651</v>
@@ -2590,22 +2491,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>29.57638445840699</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>34.85442352294922</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>36.28772523045483</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>28.646673994642</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>159073532</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>5624862176</v>
@@ -2706,22 +2607,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>38.94867833554941</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>47.55756759643555</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>48.07196459179146</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>38.94867833554941</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>159073532</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>6917390635</v>
@@ -2834,22 +2735,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>48.0490330281303</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>54.2059211730957</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>57.00716129796547</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>42.59245213160131</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>159073532</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>8211553710</v>
@@ -2962,22 +2863,22 @@
         <v>43737</v>
       </c>
       <c r="D20">
-        <v>375.8331757494683</v>
+        <v>57.23085330481264</v>
       </c>
       <c r="E20">
-        <v>455.8550720214844</v>
+        <v>59.64713668823242</v>
       </c>
       <c r="F20">
-        <v>460.3506841715976</v>
+        <v>63.75871761957458</v>
       </c>
       <c r="G20">
-        <v>359.6489720090606</v>
+        <v>55.42838128268901</v>
       </c>
       <c r="H20">
-        <v>275900103</v>
+        <v>159073532</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>9754890068</v>
@@ -3090,22 +2991,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>67.16640776841714</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>64.38569641113281</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>79.58692842283936</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>63.98566790762168</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>159073532</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>11427121249</v>
@@ -3218,22 +3119,22 @@
         <v>43919</v>
       </c>
       <c r="D22">
-        <v>915.0351038365764</v>
+        <v>51.19164483671422</v>
       </c>
       <c r="E22">
-        <v>987.2894897460938</v>
+        <v>61.10947799682617</v>
       </c>
       <c r="F22">
-        <v>1014.466893830229</v>
+        <v>65.99510936093237</v>
       </c>
       <c r="G22">
-        <v>861.7111398400884</v>
+        <v>49.9800103457828</v>
       </c>
       <c r="H22">
-        <v>1778087515</v>
+        <v>159073532</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>9148129660</v>
@@ -3346,22 +3247,22 @@
         <v>44010</v>
       </c>
       <c r="D23">
-        <v>47006.4862775259</v>
+        <v>82.89468491864777</v>
       </c>
       <c r="E23">
-        <v>50967.70703125</v>
+        <v>87.06388854980469</v>
       </c>
       <c r="F23">
-        <v>53168.38522776339</v>
+        <v>88.76679976436392</v>
       </c>
       <c r="G23">
-        <v>45862.13361533894</v>
+        <v>80.97646163172745</v>
       </c>
       <c r="H23">
-        <v>5876745450</v>
+        <v>159073532</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>13568134700</v>
@@ -3474,22 +3375,22 @@
         <v>44101</v>
       </c>
       <c r="D24">
-        <v>67.0365573733727</v>
+        <v>79.20974844034899</v>
       </c>
       <c r="E24">
-        <v>64.00115203857422</v>
+        <v>86.07838439941406</v>
       </c>
       <c r="F24">
-        <v>68.47148302140339</v>
+        <v>91.29109910276996</v>
       </c>
       <c r="G24">
-        <v>63.04453727911305</v>
+        <v>76.73077050936453</v>
       </c>
       <c r="H24">
-        <v>229140423</v>
+        <v>159073532</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>12903202915</v>
@@ -3602,22 +3503,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>119.5324919979134</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>111.2942886352539</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>140.6379964654262</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>110.8627609892769</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>159073532</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>19908433099</v>
@@ -3730,22 +3631,22 @@
         <v>44290</v>
       </c>
       <c r="D26">
-        <v>492.260009765625</v>
+        <v>121.7971843855428</v>
       </c>
       <c r="E26">
-        <v>521.4099731445312</v>
+        <v>122.7590026855469</v>
       </c>
       <c r="F26">
-        <v>547.5700073242188</v>
+        <v>136.6955028293391</v>
       </c>
       <c r="G26">
-        <v>490</v>
+        <v>120.4133524041486</v>
       </c>
       <c r="H26">
-        <v>24003656</v>
+        <v>159073532</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>21471953581</v>
@@ -3858,22 +3759,22 @@
         <v>44381</v>
       </c>
       <c r="D27">
-        <v>133.5278109717678</v>
+        <v>131.0763456091435</v>
       </c>
       <c r="E27">
-        <v>142.5795440673828</v>
+        <v>124.7410736083984</v>
       </c>
       <c r="F27">
-        <v>146.6264330221702</v>
+        <v>131.4888733454254</v>
       </c>
       <c r="G27">
-        <v>132.7066916109785</v>
+        <v>114.3197911901227</v>
       </c>
       <c r="H27">
-        <v>14840390000</v>
+        <v>159073532</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>21370210238</v>
@@ -3986,22 +3887,22 @@
         <v>44472</v>
       </c>
       <c r="D28">
-        <v>74.35084416868511</v>
+        <v>107.836257594677</v>
       </c>
       <c r="E28">
-        <v>81.03029632568359</v>
+        <v>135.8913879394531</v>
       </c>
       <c r="F28">
-        <v>81.17023033450081</v>
+        <v>136.38289322931</v>
       </c>
       <c r="G28">
-        <v>73.18473929077386</v>
+        <v>103.4520313091272</v>
       </c>
       <c r="H28">
-        <v>121301203</v>
+        <v>159073532</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>18059616095</v>
@@ -4114,22 +4015,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>162.167749496305</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>115.5123062133789</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>164.9515358987887</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>100.8359595156407</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>159073532</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>26656099720</v>
@@ -4242,22 +4143,22 @@
         <v>44654</v>
       </c>
       <c r="D30">
-        <v>237.3500061035156</v>
+        <v>117.7260779982724</v>
       </c>
       <c r="E30">
-        <v>206.6999969482422</v>
+        <v>103.8336715698242</v>
       </c>
       <c r="F30">
-        <v>245.8300018310547</v>
+        <v>118.346359891589</v>
       </c>
       <c r="G30">
-        <v>200.6699981689453</v>
+        <v>103.617063048169</v>
       </c>
       <c r="H30">
-        <v>217000000</v>
+        <v>159073532</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>18900471643</v>
@@ -4370,22 +4271,22 @@
         <v>44745</v>
       </c>
       <c r="D31">
-        <v>5.400000095367432</v>
+        <v>87.40588183275602</v>
       </c>
       <c r="E31">
-        <v>6.130000114440918</v>
+        <v>99.44045257568359</v>
       </c>
       <c r="F31">
-        <v>6.25</v>
+        <v>101.3525818445749</v>
       </c>
       <c r="G31">
-        <v>5.260000228881836</v>
+        <v>81.77792171181505</v>
       </c>
       <c r="H31">
-        <v>590361084</v>
+        <v>159073532</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>13745418859</v>
@@ -4498,22 +4399,22 @@
         <v>44836</v>
       </c>
       <c r="D32">
-        <v>3.25</v>
+        <v>75.16998855284349</v>
       </c>
       <c r="E32">
-        <v>2.900000095367432</v>
+        <v>80.281982421875</v>
       </c>
       <c r="F32">
-        <v>3.569999933242798</v>
+        <v>84.08143559484539</v>
       </c>
       <c r="G32">
-        <v>2.799999952316284</v>
+        <v>66.91974350507481</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>159073532</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>11782143252</v>
@@ -4626,22 +4527,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>87.78619979798464</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>100.4823455810547</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>103.7131981790559</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>84.52571513332373</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>159073532</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>13605299353</v>
@@ -4754,22 +4655,22 @@
         <v>45018</v>
       </c>
       <c r="D34">
-        <v>48.39275988647957</v>
+        <v>105.3317272614105</v>
       </c>
       <c r="E34">
-        <v>46.79340362548828</v>
+        <v>90.37758636474609</v>
       </c>
       <c r="F34">
-        <v>48.94223296355696</v>
+        <v>106.1328393921542</v>
       </c>
       <c r="G34">
-        <v>45.97900997260158</v>
+        <v>87.56874392637896</v>
       </c>
       <c r="H34">
-        <v>167899010</v>
+        <v>159073532</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>16776706289</v>
@@ -4882,22 +4783,22 @@
         <v>45109</v>
       </c>
       <c r="D35">
-        <v>436.1446182208199</v>
+        <v>110.6584657251123</v>
       </c>
       <c r="E35">
-        <v>428.3382873535156</v>
+        <v>111.8268356323242</v>
       </c>
       <c r="F35">
-        <v>444.701772488369</v>
+        <v>118.0251299624344</v>
       </c>
       <c r="G35">
-        <v>415.4496223149758</v>
+        <v>105.0344490190034</v>
       </c>
       <c r="H35">
-        <v>142720067</v>
+        <v>159073532</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>17260463258</v>
@@ -5010,22 +4911,22 @@
         <v>45200</v>
       </c>
       <c r="D36">
-        <v>16.03000068664551</v>
+        <v>99.62141071326366</v>
       </c>
       <c r="E36">
-        <v>14.80000019073486</v>
+        <v>82.53382110595703</v>
       </c>
       <c r="F36">
-        <v>18.44000053405762</v>
+        <v>100.7315041486907</v>
       </c>
       <c r="G36">
-        <v>14.55000019073486</v>
+        <v>81.22549129852919</v>
       </c>
       <c r="H36">
-        <v>2274261581</v>
+        <v>159073532</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>15472219919</v>
@@ -5138,22 +5039,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>106.180367060856</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>95.85010528564452</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>112.7298087485501</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>91.58304834820029</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>159073532</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>16590399563</v>
@@ -5266,22 +5167,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>112.1180198492091</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>115.5655136108398</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>118.0592351273358</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>95.17861576377771</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>159073532</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>17272084888</v>
@@ -5394,22 +5295,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>147.1666188520728</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>130.4214477539062</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>162.2909787223239</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>119.4237209430777</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>159073532</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>23149831427</v>
@@ -5522,22 +5423,22 @@
         <v>45564</v>
       </c>
       <c r="D40">
-        <v>149.5</v>
+        <v>132.1773449063756</v>
       </c>
       <c r="E40">
-        <v>149.5</v>
+        <v>105.7120132446289</v>
       </c>
       <c r="F40">
-        <v>152.4900054931641</v>
+        <v>134.7253394281065</v>
       </c>
       <c r="G40">
-        <v>143.1900024414062</v>
+        <v>105.0352012505913</v>
       </c>
       <c r="H40">
-        <v>168262866</v>
+        <v>159073532</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>21970028892</v>
@@ -5650,22 +5551,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>126.3057255923791</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>115.3750381469727</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>143.6433698097777</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>100.4088618605841</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>159073532</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>20507515295</v>
@@ -5778,22 +5679,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>157.6999969482422</v>
+        <v>81.67341275865937</v>
       </c>
       <c r="E42">
-        <v>130.3000030517578</v>
+        <v>74.02276611328125</v>
       </c>
       <c r="F42">
-        <v>160.8000030517578</v>
+        <v>84.67582061311903</v>
       </c>
       <c r="G42">
-        <v>125</v>
+        <v>65.60405792808659</v>
       </c>
       <c r="H42">
-        <v>5527428787</v>
+        <v>159073532</v>
       </c>
       <c r="I42" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>13387079449</v>
@@ -5906,22 +5807,22 @@
         <v>45837</v>
       </c>
       <c r="D43">
-        <v>4189.703654683593</v>
+        <v>89.43001932157195</v>
       </c>
       <c r="E43">
-        <v>4384.04052734375</v>
+        <v>107.322021484375</v>
       </c>
       <c r="F43">
-        <v>4409.952110365104</v>
+        <v>113.3159908325742</v>
       </c>
       <c r="G43">
-        <v>3767.145531566123</v>
+        <v>88.51094585072903</v>
       </c>
       <c r="H43">
-        <v>1333460157</v>
+        <v>159073532</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>14493972930</v>
